--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_14_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_14_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14370.09685010974</v>
+        <v>2859649.273171837</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14370.09685010974</v>
+        <v>2859649.273171837</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49107.74812607739</v>
+        <v>3155557.659300373</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>49107.74812607739</v>
+        <v>3155557.659300373</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495846703.43286</v>
+        <v>58561028.84191184</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13993.72775973063</v>
+        <v>1408448.045380322</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26724.98229651691</v>
+        <v>2601330.272506847</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39456.23683330313</v>
+        <v>3794212.499633374</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>54009.91741958047</v>
+        <v>4899341.861032059</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>68114.34757101987</v>
+        <v>6053461.002350245</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>82218.77772245924</v>
+        <v>7207580.143668424</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>96323.20787389863</v>
+        <v>8361699.284986603</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>110427.6380253381</v>
+        <v>9515818.426304782</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>124488.3727350151</v>
+        <v>10645464.30541876</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>138596.7809800425</v>
+        <v>11784597.21806845</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>152705.1892250731</v>
+        <v>12923730.13071779</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>166813.5974701036</v>
+        <v>14062863.04336714</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>180922.0057151326</v>
+        <v>15201995.95601666</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>195030.4139601631</v>
+        <v>16341128.86866601</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>209781.311039804</v>
+        <v>17393800.51245548</v>
       </c>
     </row>
   </sheetData>
